--- a/src/main/resources/xlsx/cet/cet_annual_obj_details.xlsx
+++ b/src/main/resources/xlsx/cet/cet_annual_obj_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A35F4EF-E2DC-4718-966E-24EFA3D7EE0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B60E50-3799-4D67-B5DF-7D37833953BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年度学习任务：period
-已完成学时数：finishPeriod
-完成百分比：finishRate</t>
+    <t>年度学习任务（线下/网络）：period
+已完成学时数（线下/网络）：finishPeriod
+完成百分比（线下/网络）：finishRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,10 +537,10 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
@@ -553,7 +553,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="45" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -565,7 +565,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -579,7 +579,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -615,7 +615,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>

--- a/src/main/resources/xlsx/cet/cet_annual_obj_details.xlsx
+++ b/src/main/resources/xlsx/cet/cet_annual_obj_details.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B60E50-3799-4D67-B5DF-7D37833953BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,23 +65,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作证号：code
-姓名：realname
-时任单位及职务：title
-行政级别：adminLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年度学习任务（线下/网络）：period
 已完成学时数（线下/网络）：finishPeriod
 完成百分比（线下/网络）：finishRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作证号：code
+姓名：realname
+时任单位及职务：title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -533,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA742D34-94A5-4FBA-89F9-5BA5FC5F04E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -565,14 +563,14 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
